--- a/Week7_WebScrapping/D5/ExerciseXP/EX_2/Plants.xlsx
+++ b/Week7_WebScrapping/D5/ExerciseXP/EX_2/Plants.xlsx
@@ -1,30 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wiseowl\Python\Courseware\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manuel/Desktop/DI-Bootcamp/Week7_WebScrapping/D5/ExerciseXP/EX_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71AE49BF-9D62-4FB1-A87C-5941A12C5F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B4E20D-DB78-F449-88E7-98F3A6AA6CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="5820" yWindow="4800" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$27</definedName>
+  </definedNames>
   <calcPr calcId="92512"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -205,10 +199,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
-    <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;£&quot;#,##0.00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -381,29 +375,29 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -503,9 +497,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -543,7 +537,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -649,7 +643,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -791,33 +785,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="H1" sqref="A1:H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" customWidth="1"/>
     <col min="8" max="8" width="13.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -843,7 +837,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -869,7 +863,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
@@ -895,7 +889,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
@@ -921,7 +915,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>23</v>
       </c>
@@ -947,7 +941,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
@@ -973,7 +967,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
@@ -999,7 +993,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>32</v>
       </c>
@@ -1025,7 +1019,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>34</v>
       </c>
@@ -1051,7 +1045,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>36</v>
       </c>
@@ -1077,7 +1071,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
         <v>39</v>
       </c>
@@ -1103,7 +1097,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
         <v>40</v>
       </c>
@@ -1129,7 +1123,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
         <v>42</v>
       </c>
@@ -1155,7 +1149,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
         <v>43</v>
       </c>
@@ -1181,7 +1175,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
         <v>44</v>
       </c>
@@ -1207,7 +1201,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
         <v>45</v>
       </c>
@@ -1233,7 +1227,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
         <v>46</v>
       </c>
@@ -1259,7 +1253,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
         <v>47</v>
       </c>
@@ -1285,7 +1279,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
         <v>48</v>
       </c>
@@ -1311,7 +1305,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
         <v>49</v>
       </c>
@@ -1337,7 +1331,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
         <v>50</v>
       </c>
@@ -1363,7 +1357,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
         <v>51</v>
       </c>
@@ -1389,7 +1383,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
         <v>52</v>
       </c>
@@ -1415,7 +1409,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
         <v>53</v>
       </c>
@@ -1441,7 +1435,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
         <v>54</v>
       </c>
@@ -1467,7 +1461,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
         <v>55</v>
       </c>
@@ -1493,7 +1487,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="12" t="s">
         <v>56</v>
       </c>
@@ -1520,6 +1514,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H27" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
